--- a/xlsx/超人_intext.xlsx
+++ b/xlsx/超人_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="391">
   <si>
     <t>超人</t>
   </si>
@@ -29,13 +29,13 @@
     <t>尼采</t>
   </si>
   <si>
-    <t>政策_政策_美國_超人</t>
+    <t>政策_政策_美国_超人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E4%BA%BA%E8%AA%AA</t>
   </si>
   <si>
-    <t>超人說</t>
+    <t>超人说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>正義聯盟</t>
+    <t>正义联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%BA%A7%E8%8B%B1%E9%9B%84%E5%86%9B%E5%9B%A2</t>
@@ -107,31 +107,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9C%E7%BF%BC_(DC%E6%BC%AB%E7%95%AB)</t>
   </si>
   <si>
-    <t>夜翼 (DC漫畫)</t>
+    <t>夜翼 (DC漫画)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%9F%AE%E6%98%9F</t>
   </si>
   <si>
-    <t>黃矮星</t>
+    <t>黄矮星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DC%E6%BC%AB%E7%95%AB</t>
   </si>
   <si>
-    <t>DC漫畫</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E8%8B%B1%E9%9B%84</t>
   </si>
   <si>
-    <t>超級英雄</t>
+    <t>超级英雄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
@@ -143,13 +140,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克里夫蘭 (俄亥俄州)</t>
+    <t>克里夫兰 (俄亥俄州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B6%E4%BB%96%E5%AA%92%E9%AB%94%E4%B8%AD%E7%9A%84%E8%B6%85%E4%BA%BA</t>
   </si>
   <si>
-    <t>其他媒體中的超人</t>
+    <t>其他媒体中的超人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%A5%E7%BA%B8%E8%BF%9E%E7%8E%AF%E6%BC%AB%E7%94%BB</t>
@@ -179,7 +176,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%C2%B7%E8%89%BE%E7%88%BE</t>
   </si>
   <si>
-    <t>喬·艾爾</t>
+    <t>乔·艾尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83</t>
@@ -191,7 +188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E7%89%B9%E4%B8%80%E5%AE%B6</t>
@@ -203,25 +200,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%83%BD%E6%9C%83_(DC%E6%BC%AB%E7%95%AB)</t>
   </si>
   <si>
-    <t>大都會 (DC漫畫)</t>
+    <t>大都会 (DC漫画)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B2%E8%96%8F%E7%B5%B2%C2%B7%E8%93%AE%E6%81%A9</t>
   </si>
   <si>
-    <t>露薏絲·蓮恩</t>
+    <t>露薏丝·莲恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E5%85%8B%E8%B3%BD%E5%BE%B7</t>
   </si>
   <si>
-    <t>達克賽德</t>
+    <t>达克赛德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%80%E6%BB%85%E6%97%A5</t>
   </si>
   <si>
-    <t>毀滅日</t>
+    <t>毁灭日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E6%96%AF%C2%B7%E8%B7%AF%E7%91%9F</t>
@@ -245,25 +242,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%C2%B7%E6%9D%8E%E7%B6%AD</t>
   </si>
   <si>
-    <t>克里斯多福·李維</t>
+    <t>克里斯多福·李维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%98%AD%E7%99%BB%C2%B7%E5%8B%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>布蘭登·勞斯</t>
+    <t>布兰登·劳斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E5%8D%A1%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>亨利·卡維爾</t>
+    <t>亨利·卡维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%BF%E6%8B%89</t>
   </si>
   <si>
-    <t>蘿拉</t>
+    <t>萝拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E8%88%B9</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B2%E6%98%93%E7%B5%B2%C2%B7%E8%93%AE%E6%81%A9</t>
   </si>
   <si>
-    <t>露易絲·蓮恩</t>
+    <t>露易丝·莲恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%A3%E4%B9%89%E4%BC%9A</t>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%A5%87%E5%A5%B3%E4%BF%A0</t>
   </si>
   <si>
-    <t>神奇女俠</t>
+    <t>神奇女侠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E7%AC%AC%E4%B9%9D%E5%B7%A1%E5%9B%9E%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%83%E7%84%B0</t>
   </si>
   <si>
-    <t>閃焰</t>
+    <t>闪焰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AA%E7%9F%B3</t>
@@ -341,19 +338,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E7%A3%81%E6%B3%A2%E8%AD%9C</t>
   </si>
   <si>
-    <t>電磁波譜</t>
+    <t>电磁波谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E9%A0%BB</t>
   </si>
   <si>
-    <t>調頻</t>
+    <t>调频</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%B5%AB</t>
   </si>
   <si>
-    <t>馬赫</t>
+    <t>马赫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E9%80%9F</t>
@@ -365,37 +362,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%B6%E9%A2%A8</t>
   </si>
   <si>
-    <t>颶風</t>
+    <t>飓风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9D%99%E8%9D%A0%E4%BF%A0</t>
   </si>
   <si>
-    <t>蝙蝠俠</t>
+    <t>蝙蝠侠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC%E9%AA%A8</t>
   </si>
   <si>
-    <t>鋼骨</t>
+    <t>钢骨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%A3%93%E9%9B%BB</t>
   </si>
   <si>
-    <t>高壓電</t>
+    <t>高压电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E6%99%AE%E9%A0%93%E7%9F%B3</t>
   </si>
   <si>
-    <t>克利普頓石</t>
+    <t>克利普顿石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>西伯利亞</t>
+    <t>西伯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%9F</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E4%BA%BA%E5%89%8D%E5%82%B3</t>
   </si>
   <si>
-    <t>超人前傳</t>
+    <t>超人前传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%8A%9B%E5%A5%B3%E8%B6%85%E4%BA%BA</t>
@@ -425,19 +422,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E4%BA%BA%EF%BC%9A%E9%8B%BC%E9%90%B5%E8%8B%B1%E9%9B%84</t>
   </si>
   <si>
-    <t>超人：鋼鐵英雄</t>
+    <t>超人：钢铁英雄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E6%8D%B2%E9%A2%A8</t>
   </si>
   <si>
-    <t>龍捲風</t>
+    <t>龙捲风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9D%99%E8%9D%A0%E4%BF%A0%E5%B0%8D%E8%B6%85%E4%BA%BA%EF%BC%9A%E6%AD%A3%E7%BE%A9%E6%9B%99%E5%85%89</t>
   </si>
   <si>
-    <t>蝙蝠俠對超人：正義曙光</t>
+    <t>蝙蝠侠对超人：正义曙光</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E8%83%BD%E5%8A%9B</t>
@@ -455,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E4%BA%BA_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>超人 (電影)</t>
+    <t>超人 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E4%BA%BAII</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%9B%BB%E8%A6%96%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>台灣電視公司</t>
+    <t>台湾电视公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E6%81%A9%C2%B7%E8%82%AF%E6%81%A9</t>
@@ -491,21 +488,18 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%A6%96</t>
   </si>
   <si>
-    <t>中視</t>
+    <t>中视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E8%A6%96</t>
   </si>
   <si>
-    <t>華視</t>
+    <t>华视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%85%B0%E7%99%BB%C2%B7%E5%8A%B3%E6%96%AF</t>
   </si>
   <si>
-    <t>布兰登·劳斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E4%BA%BA%E5%86%8D%E8%B5%B7</t>
   </si>
   <si>
@@ -515,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A7%E7%93%A6%E5%B7%9E</t>
   </si>
   <si>
-    <t>艾奧瓦州</t>
+    <t>艾奥瓦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%85%8B%C2%B7%E5%8F%B2%E5%A5%88%E5%BE%B7</t>
@@ -527,13 +521,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%96%AF%E6%9D%9C%E5%8C%96%C2%B7%E8%B7%AF%E8%98%AD</t>
   </si>
   <si>
-    <t>基斯杜化·路蘭</t>
+    <t>基斯杜化·路兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E6%88%B2%E6%A9%9F</t>
   </si>
   <si>
-    <t>遊戲機</t>
+    <t>游戏机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%8B%92%C2%B7%E9%9C%8D%E5%A5%87%E6%9E%97</t>
@@ -545,13 +539,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E8%B6%85%E4%BA%BA_(%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>女超人 (電視劇)</t>
+    <t>女超人 (电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%BA%B3</t>
@@ -563,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%95%AB%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>動畫電影</t>
+    <t>动画电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%B9%E7%AB%99</t>
@@ -575,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%BE%B7%E5%B0%87%E8%BB%8D</t>
   </si>
   <si>
-    <t>薩德將軍</t>
+    <t>萨德将军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E6%96%AF%E8%B7%AF%E7%91%9F</t>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%A0%B1</t>
   </si>
   <si>
-    <t>聯合報</t>
+    <t>联合报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Boston</t>
@@ -737,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/DC%E6%93%B4%E5%B1%95%E5%AE%87%E5%AE%99</t>
   </si>
   <si>
-    <t>DC擴展宇宙</t>
+    <t>DC扩展宇宙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E4%BA%BA_(1940%E5%B9%B4%E4%BB%A3%E5%8A%A8%E7%94%BB)</t>
@@ -797,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%83%E9%9B%BB%E4%BF%A0_(%E8%B2%9D%E7%91%9E%C2%B7%E8%89%BE%E5%80%AB)</t>
   </si>
   <si>
-    <t>閃電俠 (貝瑞·艾倫)</t>
+    <t>闪电侠 (贝瑞·艾伦)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E8%A1%8C%E4%BE%A0</t>
@@ -815,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E9%87%91%E7%B5%B2%E9%9B%80</t>
   </si>
   <si>
-    <t>黑金絲雀</t>
+    <t>黑金丝雀</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Triumph_(comics)</t>
@@ -827,19 +821,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%88%A9%C2%B7%E5%A8%81%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>華利·威斯特</t>
+    <t>华利·威斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E4%BF%A0_(%E9%9B%B7%C2%B7%E5%B8%95%E7%88%BE%E9%BB%98)</t>
   </si>
   <si>
-    <t>原子俠 (雷·帕爾默)</t>
+    <t>原子侠 (雷·帕尔默)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E7%AE%AD%E4%BF%A0</t>
   </si>
   <si>
-    <t>綠箭俠</t>
+    <t>绿箭侠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%B0%E4%BE%A0_(%E5%8D%A1%E5%A1%94%E5%B0%94%C2%B7%E9%9C%8D%E5%B0%94)</t>
@@ -863,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E9%9A%8A%E9%95%B7</t>
   </si>
   <si>
-    <t>原子隊長</t>
+    <t>原子队长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%AB%E5%A5%B3</t>
@@ -881,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B7%B9%E5%A5%B3%E4%BF%A0</t>
   </si>
   <si>
-    <t>鷹女俠</t>
+    <t>鹰女侠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%81%E5%BE%B7_(%E6%BC%AB%E7%94%BB)</t>
@@ -905,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E9%96%83%E9%9B%BB</t>
   </si>
   <si>
-    <t>黑閃電</t>
+    <t>黑闪电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8E%E5%9D%A6%E5%A8%9C</t>
@@ -923,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%9A%97%E6%AD%A3%E7%BE%A9%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>黑暗正義聯盟</t>
+    <t>黑暗正义联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%A3%E4%B9%89%E4%BC%9A%E7%A4%BE</t>
@@ -935,13 +929,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B9%B4%E6%82%8D%E5%B0%87</t>
   </si>
   <si>
-    <t>少年悍將</t>
+    <t>少年悍将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B9%B4%E6%AD%A3%E7%BE%A9%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>少年正義聯盟</t>
+    <t>少年正义联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E7%81%AF%E5%86%9B%E5%9B%A2</t>
@@ -989,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%B8%91_(%E6%BC%AB%E7%95%AB)</t>
   </si>
   <si>
-    <t>小丑 (漫畫)</t>
+    <t>小丑 (漫画)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Maxwell_Lord</t>
@@ -1025,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B4%8D%E6%89%98</t>
   </si>
   <si>
-    <t>聖納托</t>
+    <t>圣纳托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%92%E7%8B%BC</t>
@@ -1055,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%AA%E6%83%A1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>罪惡聯盟</t>
+    <t>罪恶联盟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Legion_of_Doom</t>
@@ -1097,49 +1091,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E8%81%AF%E7%9B%9F%EF%BC%9A%E5%85%A9%E9%9D%A2%E5%A4%BE%E6%93%8A</t>
   </si>
   <si>
-    <t>正義聯盟：兩面夾擊</t>
+    <t>正义联盟：两面夹击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E8%81%AF%E7%9B%9F%EF%BC%9A%E6%9C%AB%E6%97%A5%E5%AF%A9%E5%88%A4</t>
   </si>
   <si>
-    <t>正義聯盟：末日審判</t>
+    <t>正义联盟：末日审判</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E8%81%AF%E7%9B%9F%EF%BC%9A%E9%96%83%E9%9B%BB%E4%BF%A0%E4%B9%8B%E9%80%86%E8%BD%89</t>
   </si>
   <si>
-    <t>正義聯盟：閃電俠之逆轉</t>
+    <t>正义联盟：闪电侠之逆转</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E8%81%AF%E7%9B%9F%EF%BC%9A%E9%96%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>正義聯盟：開戰</t>
+    <t>正义联盟：开战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E8%81%AF%E7%9B%9F%EF%BC%9A%E4%BA%9E%E7%89%B9%E8%98%AD%E6%8F%90%E6%96%AF%E7%9A%84%E7%8E%8B%E4%BD%8D</t>
   </si>
   <si>
-    <t>正義聯盟：亞特蘭提斯的王位</t>
+    <t>正义联盟：亚特兰提斯的王位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E8%81%AF%E7%9B%9F%EF%BC%9A%E7%A5%9E%E8%88%87%E9%AD%94</t>
   </si>
   <si>
-    <t>正義聯盟：神與魔</t>
+    <t>正义联盟：神与魔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%A3%E7%BE%A9%E8%81%AF%E7%9B%9F_(%E9%9B%BB%E8%A6%96%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>美國正義聯盟 (電視電影)</t>
+    <t>美国正义联盟 (电视电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E8%81%AF%E7%9B%9F_(%E5%8E%9F%E8%81%B2%E5%B8%B6)</t>
   </si>
   <si>
-    <t>正義聯盟 (原聲帶)</t>
+    <t>正义联盟 (原声带)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E4%B9%89%E8%81%94%E7%9B%9F%E7%89%B9%E9%81%A3%E9%83%A8%E9%98%9F</t>
@@ -1151,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/DC_%E8%B6%85%E7%B4%9A%E8%8B%B1%E9%9B%84_Online</t>
   </si>
   <si>
-    <t>DC 超級英雄 Online</t>
+    <t>DC 超级英雄 Online</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%90%E9%AB%98%E8%9D%99%E8%9D%A0%E4%BE%A02%EF%BC%9ADC%E8%B6%85%E7%BA%A7%E8%8B%B1%E9%9B%84</t>
@@ -1163,19 +1157,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E8%8B%B1%E9%9B%84%EF%BC%9A%E6%AD%A6%E5%8A%9B%E5%B0%8D%E6%B1%BA</t>
   </si>
   <si>
-    <t>超級英雄：武力對決</t>
+    <t>超级英雄：武力对决</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E8%8B%B1%E9%9B%84%EF%BC%9A%E6%AD%A6%E5%8A%9B%E5%B0%8D%E6%B1%BA_2</t>
   </si>
   <si>
-    <t>超級英雄：武力對決 2</t>
+    <t>超级英雄：武力对决 2</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2028,7 +2022,7 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G17" t="n">
         <v>9</v>
@@ -2054,10 +2048,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>9</v>
@@ -2083,10 +2077,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>11</v>
@@ -2141,10 +2135,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2170,10 +2164,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2228,10 +2222,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
         <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
       </c>
       <c r="G24" t="n">
         <v>6</v>
@@ -2257,10 +2251,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
         <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2286,10 +2280,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
         <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>24</v>
@@ -2315,10 +2309,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
         <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2344,10 +2338,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -2373,10 +2367,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
         <v>53</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -2402,10 +2396,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
         <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>17</v>
@@ -2431,10 +2425,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
         <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -2460,10 +2454,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2489,10 +2483,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -2547,10 +2541,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
         <v>63</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2576,10 +2570,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
         <v>65</v>
-      </c>
-      <c r="F36" t="s">
-        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -2605,10 +2599,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
         <v>67</v>
-      </c>
-      <c r="F37" t="s">
-        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
@@ -2634,10 +2628,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
         <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>5</v>
@@ -2663,10 +2657,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
         <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2692,10 +2686,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
         <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2721,10 +2715,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2750,10 +2744,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
         <v>77</v>
-      </c>
-      <c r="F42" t="s">
-        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2779,10 +2773,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
         <v>79</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -2808,10 +2802,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
         <v>81</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2837,10 +2831,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
         <v>83</v>
-      </c>
-      <c r="F45" t="s">
-        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2866,10 +2860,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
         <v>85</v>
-      </c>
-      <c r="F46" t="s">
-        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>9</v>
@@ -2895,10 +2889,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
         <v>87</v>
-      </c>
-      <c r="F47" t="s">
-        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -2924,10 +2918,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -2982,10 +2976,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" t="s">
         <v>91</v>
-      </c>
-      <c r="F50" t="s">
-        <v>92</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3011,10 +3005,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" t="s">
         <v>93</v>
-      </c>
-      <c r="F51" t="s">
-        <v>94</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3040,10 +3034,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" t="s">
         <v>95</v>
-      </c>
-      <c r="F52" t="s">
-        <v>96</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3069,10 +3063,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" t="s">
         <v>97</v>
-      </c>
-      <c r="F53" t="s">
-        <v>98</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3098,10 +3092,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" t="s">
         <v>99</v>
-      </c>
-      <c r="F54" t="s">
-        <v>100</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -3127,10 +3121,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s">
         <v>101</v>
-      </c>
-      <c r="F55" t="s">
-        <v>102</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -3156,10 +3150,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" t="s">
         <v>103</v>
-      </c>
-      <c r="F56" t="s">
-        <v>104</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3185,10 +3179,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" t="s">
         <v>105</v>
-      </c>
-      <c r="F57" t="s">
-        <v>106</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3214,10 +3208,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" t="s">
         <v>107</v>
-      </c>
-      <c r="F58" t="s">
-        <v>108</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3243,10 +3237,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" t="s">
         <v>109</v>
-      </c>
-      <c r="F59" t="s">
-        <v>110</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3272,10 +3266,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" t="s">
         <v>111</v>
-      </c>
-      <c r="F60" t="s">
-        <v>112</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3301,10 +3295,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" t="s">
         <v>113</v>
-      </c>
-      <c r="F61" t="s">
-        <v>114</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3330,10 +3324,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" t="s">
         <v>115</v>
-      </c>
-      <c r="F62" t="s">
-        <v>116</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3359,10 +3353,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" t="s">
         <v>117</v>
-      </c>
-      <c r="F63" t="s">
-        <v>118</v>
       </c>
       <c r="G63" t="n">
         <v>17</v>
@@ -3388,10 +3382,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" t="s">
         <v>119</v>
-      </c>
-      <c r="F64" t="s">
-        <v>120</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3417,10 +3411,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" t="s">
         <v>121</v>
-      </c>
-      <c r="F65" t="s">
-        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3446,10 +3440,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" t="s">
         <v>123</v>
-      </c>
-      <c r="F66" t="s">
-        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -3475,10 +3469,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" t="s">
         <v>125</v>
-      </c>
-      <c r="F67" t="s">
-        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3504,10 +3498,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" t="s">
         <v>127</v>
-      </c>
-      <c r="F68" t="s">
-        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3533,10 +3527,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" t="s">
         <v>129</v>
-      </c>
-      <c r="F69" t="s">
-        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3562,10 +3556,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
         <v>131</v>
-      </c>
-      <c r="F70" t="s">
-        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>5</v>
@@ -3591,10 +3585,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" t="s">
         <v>133</v>
-      </c>
-      <c r="F71" t="s">
-        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3620,10 +3614,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" t="s">
         <v>135</v>
-      </c>
-      <c r="F72" t="s">
-        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>6</v>
@@ -3649,10 +3643,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" t="s">
         <v>137</v>
-      </c>
-      <c r="F73" t="s">
-        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3678,10 +3672,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" t="s">
         <v>139</v>
-      </c>
-      <c r="F74" t="s">
-        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>6</v>
@@ -3707,10 +3701,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" t="s">
         <v>141</v>
-      </c>
-      <c r="F75" t="s">
-        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>6</v>
@@ -3736,10 +3730,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s">
         <v>43</v>
-      </c>
-      <c r="F76" t="s">
-        <v>44</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3765,10 +3759,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" t="s">
         <v>47</v>
-      </c>
-      <c r="F77" t="s">
-        <v>48</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3794,10 +3788,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" t="s">
         <v>143</v>
-      </c>
-      <c r="F78" t="s">
-        <v>144</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3823,10 +3817,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>144</v>
+      </c>
+      <c r="F79" t="s">
         <v>145</v>
-      </c>
-      <c r="F79" t="s">
-        <v>146</v>
       </c>
       <c r="G79" t="n">
         <v>184</v>
@@ -3852,10 +3846,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>146</v>
+      </c>
+      <c r="F80" t="s">
         <v>147</v>
-      </c>
-      <c r="F80" t="s">
-        <v>148</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3881,10 +3875,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" t="s">
         <v>149</v>
-      </c>
-      <c r="F81" t="s">
-        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3910,10 +3904,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>150</v>
+      </c>
+      <c r="F82" t="s">
         <v>151</v>
-      </c>
-      <c r="F82" t="s">
-        <v>152</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3939,10 +3933,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>152</v>
+      </c>
+      <c r="F83" t="s">
         <v>153</v>
-      </c>
-      <c r="F83" t="s">
-        <v>154</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3968,10 +3962,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84" t="s">
         <v>155</v>
-      </c>
-      <c r="F84" t="s">
-        <v>156</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3997,10 +3991,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>156</v>
+      </c>
+      <c r="F85" t="s">
         <v>157</v>
-      </c>
-      <c r="F85" t="s">
-        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4026,10 +4020,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>128</v>
+      </c>
+      <c r="F86" t="s">
         <v>129</v>
-      </c>
-      <c r="F86" t="s">
-        <v>130</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4055,10 +4049,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>158</v>
+      </c>
+      <c r="F87" t="s">
         <v>159</v>
-      </c>
-      <c r="F87" t="s">
-        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4084,10 +4078,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4113,10 +4107,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4142,10 +4136,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F90" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4171,10 +4165,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F91" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4200,10 +4194,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F92" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4229,10 +4223,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4258,10 +4252,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F94" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -4287,10 +4281,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F95" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
@@ -4316,10 +4310,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F96" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -4345,10 +4339,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F97" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -4374,10 +4368,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F98" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4403,10 +4397,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G99" t="n">
         <v>4</v>
@@ -4432,10 +4426,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F100" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4461,10 +4455,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4490,10 +4484,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4519,10 +4513,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4548,10 +4542,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F104" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4577,10 +4571,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F105" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4606,10 +4600,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4635,10 +4629,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4664,10 +4658,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4693,10 +4687,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4722,10 +4716,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4751,10 +4745,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4780,10 +4774,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4809,10 +4803,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F113" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4838,10 +4832,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F114" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4867,10 +4861,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G115" t="n">
         <v>4</v>
@@ -4896,10 +4890,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4925,10 +4919,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4954,10 +4948,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4983,10 +4977,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5012,10 +5006,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5041,10 +5035,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5070,10 +5064,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5099,10 +5093,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5128,10 +5122,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>5</v>
@@ -5157,10 +5151,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5186,10 +5180,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5215,10 +5209,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>144</v>
+      </c>
+      <c r="F127" t="s">
         <v>145</v>
-      </c>
-      <c r="F127" t="s">
-        <v>146</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5244,10 +5238,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>146</v>
+      </c>
+      <c r="F128" t="s">
         <v>147</v>
-      </c>
-      <c r="F128" t="s">
-        <v>148</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -5273,10 +5267,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>150</v>
+      </c>
+      <c r="F129" t="s">
         <v>151</v>
-      </c>
-      <c r="F129" t="s">
-        <v>152</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5302,10 +5296,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F130" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5331,10 +5325,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F131" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5360,10 +5354,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F132" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5389,10 +5383,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F133" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5418,10 +5412,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F134" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5447,10 +5441,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F135" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5476,10 +5470,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F136" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5505,10 +5499,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F137" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5534,10 +5528,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F138" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5563,10 +5557,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F139" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5592,10 +5586,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F140" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5621,10 +5615,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F141" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5650,10 +5644,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F142" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5679,10 +5673,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>50</v>
+      </c>
+      <c r="F143" t="s">
         <v>51</v>
-      </c>
-      <c r="F143" t="s">
-        <v>52</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5708,10 +5702,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F144" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5737,10 +5731,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F145" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5766,10 +5760,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F146" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5795,10 +5789,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F147" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5824,10 +5818,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F148" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5853,10 +5847,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F149" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5882,10 +5876,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F150" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5911,10 +5905,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F151" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5940,10 +5934,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F152" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5969,10 +5963,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F153" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5998,10 +5992,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F154" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6027,10 +6021,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F155" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6056,10 +6050,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F156" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6085,10 +6079,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F157" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6114,10 +6108,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F158" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6143,10 +6137,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F159" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6172,10 +6166,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F160" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6201,10 +6195,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F161" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6230,10 +6224,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F162" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6259,10 +6253,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F163" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6288,10 +6282,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F164" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6317,10 +6311,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F165" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6346,10 +6340,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F166" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6375,10 +6369,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F167" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6404,10 +6398,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F168" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6433,10 +6427,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F169" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6462,10 +6456,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F170" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6491,10 +6485,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F171" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6520,10 +6514,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F172" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6549,10 +6543,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F173" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6578,10 +6572,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F174" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6607,10 +6601,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F175" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6636,10 +6630,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F176" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6665,10 +6659,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F177" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6694,10 +6688,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F178" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6723,10 +6717,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F179" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6752,10 +6746,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F180" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6781,10 +6775,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F181" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6810,10 +6804,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F182" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6839,10 +6833,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F183" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6868,10 +6862,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F184" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6897,10 +6891,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F185" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6926,10 +6920,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F186" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6955,10 +6949,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F187" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6984,10 +6978,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F188" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7013,10 +7007,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F189" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7042,10 +7036,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F190" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7071,10 +7065,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F191" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7100,10 +7094,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F192" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7129,10 +7123,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F193" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7158,10 +7152,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F194" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7187,10 +7181,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F195" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7216,10 +7210,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F196" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7245,10 +7239,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F197" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7274,10 +7268,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F198" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7303,10 +7297,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F199" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7332,10 +7326,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>130</v>
+      </c>
+      <c r="F200" t="s">
         <v>131</v>
-      </c>
-      <c r="F200" t="s">
-        <v>132</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7361,10 +7355,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F201" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7390,10 +7384,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F202" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7419,10 +7413,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F203" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7448,10 +7442,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F204" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7477,10 +7471,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F205" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -7506,10 +7500,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F206" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7535,10 +7529,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F207" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -7564,10 +7558,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F208" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7593,10 +7587,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F209" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7622,10 +7616,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F210" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
